--- a/data/pca/factorExposure/factorExposure_2019-05-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1206206165019649</v>
+        <v>0.07743503130558632</v>
       </c>
       <c r="C2">
-        <v>-0.01464636163280753</v>
+        <v>-0.01244584688410302</v>
       </c>
       <c r="D2">
-        <v>-0.01234854026401347</v>
+        <v>0.03630429720991953</v>
       </c>
       <c r="E2">
-        <v>0.1106374585820896</v>
+        <v>0.1184271561296658</v>
       </c>
       <c r="F2">
-        <v>0.08610697571715735</v>
+        <v>-0.08462186102436264</v>
       </c>
       <c r="G2">
-        <v>0.1221620004426035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08175427040427745</v>
+      </c>
+      <c r="H2">
+        <v>-0.08331595114189948</v>
+      </c>
+      <c r="I2">
+        <v>0.04817195183105783</v>
+      </c>
+      <c r="J2">
+        <v>0.00406303595282194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2113120050725947</v>
+        <v>0.1618966833577781</v>
       </c>
       <c r="C3">
-        <v>0.08221003888373785</v>
+        <v>-0.07677074153182971</v>
       </c>
       <c r="D3">
-        <v>0.09480635899112072</v>
+        <v>-0.04768006305186414</v>
       </c>
       <c r="E3">
-        <v>0.3201482550017836</v>
+        <v>0.2670291569372366</v>
       </c>
       <c r="F3">
-        <v>-0.003059205573840057</v>
+        <v>-0.2944247716312339</v>
       </c>
       <c r="G3">
-        <v>0.3341945765662488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.003428309708359957</v>
+      </c>
+      <c r="H3">
+        <v>-0.2566004677307605</v>
+      </c>
+      <c r="I3">
+        <v>0.1341544237670503</v>
+      </c>
+      <c r="J3">
+        <v>0.2396413889967131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0989825566352921</v>
+        <v>0.07383774855243137</v>
       </c>
       <c r="C4">
-        <v>0.02579715940789647</v>
+        <v>-0.03287023136025988</v>
       </c>
       <c r="D4">
-        <v>0.004401807275360403</v>
+        <v>0.02093863987156067</v>
       </c>
       <c r="E4">
-        <v>0.08445223020524339</v>
+        <v>0.04341143187042815</v>
       </c>
       <c r="F4">
-        <v>0.04648983729770959</v>
+        <v>-0.09040662229063459</v>
       </c>
       <c r="G4">
-        <v>0.03255250975280713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03338924189272456</v>
+      </c>
+      <c r="H4">
+        <v>-0.03439644264596888</v>
+      </c>
+      <c r="I4">
+        <v>0.02199564967464496</v>
+      </c>
+      <c r="J4">
+        <v>0.05162611486263036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01291357640449776</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.003616753205329165</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0005062009269566708</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002009607377624183</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003718960148857519</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01823327350308771</v>
+      </c>
+      <c r="H6">
+        <v>-0.00247274077237945</v>
+      </c>
+      <c r="I6">
+        <v>-0.003282231303741784</v>
+      </c>
+      <c r="J6">
+        <v>0.003235117389287469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04374094396006087</v>
+        <v>0.03441222858434444</v>
       </c>
       <c r="C7">
-        <v>0.004385482508941251</v>
+        <v>-0.01666747307799352</v>
       </c>
       <c r="D7">
-        <v>-0.02255351027063872</v>
+        <v>0.01772759312802679</v>
       </c>
       <c r="E7">
-        <v>0.08011249445606605</v>
+        <v>0.03697130204891898</v>
       </c>
       <c r="F7">
-        <v>-0.03963772478775033</v>
+        <v>-0.05072206033681825</v>
       </c>
       <c r="G7">
-        <v>0.01966529468356248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01471670654992431</v>
+      </c>
+      <c r="H7">
+        <v>-0.0434675231945866</v>
+      </c>
+      <c r="I7">
+        <v>0.0009279458698264179</v>
+      </c>
+      <c r="J7">
+        <v>0.02192697578326074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04365613123740106</v>
+        <v>0.03306648714658262</v>
       </c>
       <c r="C8">
-        <v>0.03688062622295549</v>
+        <v>-0.03675697072232662</v>
       </c>
       <c r="D8">
-        <v>0.01396767813652525</v>
+        <v>0.004574279933671529</v>
       </c>
       <c r="E8">
-        <v>0.07207161960517371</v>
+        <v>0.04162877376257943</v>
       </c>
       <c r="F8">
-        <v>-0.006078152544089585</v>
+        <v>-0.07745740336617649</v>
       </c>
       <c r="G8">
-        <v>0.04836474061627153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.007111255560823927</v>
+      </c>
+      <c r="H8">
+        <v>-0.04948344313795511</v>
+      </c>
+      <c r="I8">
+        <v>0.02762276947009032</v>
+      </c>
+      <c r="J8">
+        <v>0.03463125705711449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08727011408959583</v>
+        <v>0.06379913912507343</v>
       </c>
       <c r="C9">
-        <v>0.02614737809902848</v>
+        <v>-0.03286113185936226</v>
       </c>
       <c r="D9">
-        <v>-0.01064324983492569</v>
+        <v>0.02185665684539753</v>
       </c>
       <c r="E9">
-        <v>0.0763768133626376</v>
+        <v>0.03730779650832555</v>
       </c>
       <c r="F9">
-        <v>0.02909047914776959</v>
+        <v>-0.09124367085645189</v>
       </c>
       <c r="G9">
-        <v>0.0284256687029865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02332720421640329</v>
+      </c>
+      <c r="H9">
+        <v>-0.03167369385758436</v>
+      </c>
+      <c r="I9">
+        <v>0.008382400992935654</v>
+      </c>
+      <c r="J9">
+        <v>0.01480794476778274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01170623739945423</v>
+        <v>0.01184465276469781</v>
       </c>
       <c r="C10">
-        <v>-0.1631853340053052</v>
+        <v>0.1625880048593366</v>
       </c>
       <c r="D10">
-        <v>0.01011199521727139</v>
+        <v>-0.005327448562456716</v>
       </c>
       <c r="E10">
-        <v>0.04261770981070478</v>
+        <v>0.04560502751192726</v>
       </c>
       <c r="F10">
-        <v>0.0014124163686567</v>
+        <v>-0.02754123242043007</v>
       </c>
       <c r="G10">
-        <v>-0.01289738112507078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01657235928620487</v>
+      </c>
+      <c r="H10">
+        <v>0.0202513087117657</v>
+      </c>
+      <c r="I10">
+        <v>0.1149015842071385</v>
+      </c>
+      <c r="J10">
+        <v>0.0348394134854213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05885472335968589</v>
+        <v>0.05008611022557906</v>
       </c>
       <c r="C11">
-        <v>0.001885901739723749</v>
+        <v>-0.01980995894523194</v>
       </c>
       <c r="D11">
-        <v>0.01456437072131566</v>
+        <v>0.004972535252095031</v>
       </c>
       <c r="E11">
-        <v>0.03928919686856924</v>
+        <v>0.04015205259850917</v>
       </c>
       <c r="F11">
-        <v>0.004228160326328934</v>
+        <v>-0.02346016517547113</v>
       </c>
       <c r="G11">
-        <v>-0.005996082935020812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.001422185105387962</v>
+      </c>
+      <c r="H11">
+        <v>-0.0173527777388759</v>
+      </c>
+      <c r="I11">
+        <v>-0.01677832901035176</v>
+      </c>
+      <c r="J11">
+        <v>0.009441004558069056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.0494404640079215</v>
+        <v>0.04814140665961555</v>
       </c>
       <c r="C12">
-        <v>0.007864079064632974</v>
+        <v>-0.02115621112724179</v>
       </c>
       <c r="D12">
-        <v>0.008780265609994713</v>
+        <v>0.00640644624631927</v>
       </c>
       <c r="E12">
-        <v>0.0260371801707629</v>
+        <v>0.01322888390361611</v>
       </c>
       <c r="F12">
-        <v>-0.001053031808137247</v>
+        <v>-0.02197100864749435</v>
       </c>
       <c r="G12">
-        <v>0.001732118019406315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002861434960353095</v>
+      </c>
+      <c r="H12">
+        <v>-0.007724343944830796</v>
+      </c>
+      <c r="I12">
+        <v>-0.02087003166010023</v>
+      </c>
+      <c r="J12">
+        <v>0.00276622621052845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05820140479578422</v>
+        <v>0.04006779660376108</v>
       </c>
       <c r="C13">
-        <v>0.01612845072231968</v>
+        <v>-0.01827628897345673</v>
       </c>
       <c r="D13">
-        <v>0.02893322347616664</v>
+        <v>0.004723811530699036</v>
       </c>
       <c r="E13">
-        <v>0.1099947095693964</v>
+        <v>0.08627791017225724</v>
       </c>
       <c r="F13">
-        <v>0.01260469024797654</v>
+        <v>-0.06401614125173229</v>
       </c>
       <c r="G13">
-        <v>0.04009726986968059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.00225912889902011</v>
+      </c>
+      <c r="H13">
+        <v>-0.05337810476863895</v>
+      </c>
+      <c r="I13">
+        <v>0.01670079078612065</v>
+      </c>
+      <c r="J13">
+        <v>0.005622941763375321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03649997451293058</v>
+        <v>0.02781317726488628</v>
       </c>
       <c r="C14">
-        <v>0.007987236839507727</v>
+        <v>-0.01467484368485856</v>
       </c>
       <c r="D14">
-        <v>-0.01322580906910869</v>
+        <v>0.0206213300757206</v>
       </c>
       <c r="E14">
-        <v>0.02684618879392644</v>
+        <v>0.02333270200980503</v>
       </c>
       <c r="F14">
-        <v>-0.003141188880052645</v>
+        <v>-0.03686444914408883</v>
       </c>
       <c r="G14">
-        <v>0.04642864509021612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01100271345040944</v>
+      </c>
+      <c r="H14">
+        <v>-0.05853474874357232</v>
+      </c>
+      <c r="I14">
+        <v>0.02324321484034159</v>
+      </c>
+      <c r="J14">
+        <v>0.005126878078914863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05039547489901997</v>
+        <v>0.04263861870791007</v>
       </c>
       <c r="C16">
-        <v>0.02040161679363667</v>
+        <v>-0.02795302490205118</v>
       </c>
       <c r="D16">
-        <v>0.02483842634581377</v>
+        <v>-0.002295382529013877</v>
       </c>
       <c r="E16">
-        <v>0.03546029655819113</v>
+        <v>0.03348977238778213</v>
       </c>
       <c r="F16">
-        <v>0.0001807479551107891</v>
+        <v>-0.02497734072188842</v>
       </c>
       <c r="G16">
-        <v>-0.006305132539127914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005168394519905547</v>
+      </c>
+      <c r="H16">
+        <v>-0.01704271407250312</v>
+      </c>
+      <c r="I16">
+        <v>-0.01628466367471897</v>
+      </c>
+      <c r="J16">
+        <v>0.01167108892874363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.050986007275466</v>
+        <v>0.04522156794854238</v>
       </c>
       <c r="C19">
-        <v>0.02980490560571968</v>
+        <v>-0.03515943214864582</v>
       </c>
       <c r="D19">
-        <v>0.01608466565630694</v>
+        <v>0.004183143826990024</v>
       </c>
       <c r="E19">
-        <v>0.07974943780234035</v>
+        <v>0.0711607670430215</v>
       </c>
       <c r="F19">
-        <v>-0.008932957406097588</v>
+        <v>-0.07154648317367805</v>
       </c>
       <c r="G19">
-        <v>0.05696711453595441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.009344131599067598</v>
+      </c>
+      <c r="H19">
+        <v>-0.07886978573957586</v>
+      </c>
+      <c r="I19">
+        <v>0.05333271631112017</v>
+      </c>
+      <c r="J19">
+        <v>0.003334297542598212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.0369285505388352</v>
+        <v>0.01887687962275006</v>
       </c>
       <c r="C20">
-        <v>0.03228784892425816</v>
+        <v>-0.03270008812375489</v>
       </c>
       <c r="D20">
-        <v>0.004129896532886534</v>
+        <v>0.01048769486134696</v>
       </c>
       <c r="E20">
-        <v>0.0700679662437953</v>
+        <v>0.04669807833456335</v>
       </c>
       <c r="F20">
-        <v>-0.01681780893583391</v>
+        <v>-0.06303690816447138</v>
       </c>
       <c r="G20">
-        <v>0.04895889661401068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01311890671704281</v>
+      </c>
+      <c r="H20">
+        <v>-0.07258751293988396</v>
+      </c>
+      <c r="I20">
+        <v>0.01321461299982159</v>
+      </c>
+      <c r="J20">
+        <v>0.04621476449955703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03706218507361991</v>
+        <v>0.01718084950691581</v>
       </c>
       <c r="C21">
-        <v>0.01337171780825495</v>
+        <v>-0.02184163518323094</v>
       </c>
       <c r="D21">
-        <v>0.02597261756740982</v>
+        <v>-0.009724335562744164</v>
       </c>
       <c r="E21">
-        <v>0.09220528873164917</v>
+        <v>0.05099513136494496</v>
       </c>
       <c r="F21">
-        <v>0.0379274911585389</v>
+        <v>-0.07112648219081252</v>
       </c>
       <c r="G21">
-        <v>0.0508023261444562</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01643922692504732</v>
+      </c>
+      <c r="H21">
+        <v>-0.04198783903706822</v>
+      </c>
+      <c r="I21">
+        <v>-0.003500411780144388</v>
+      </c>
+      <c r="J21">
+        <v>-0.01111110474907996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04605415448238946</v>
+        <v>0.04040537257475189</v>
       </c>
       <c r="C24">
-        <v>0.011185273842481</v>
+        <v>-0.016589042017748</v>
       </c>
       <c r="D24">
-        <v>0.01255018937928195</v>
+        <v>0.004691922858954966</v>
       </c>
       <c r="E24">
-        <v>0.05009453033424358</v>
+        <v>0.03720107522960072</v>
       </c>
       <c r="F24">
-        <v>0.00216044646719325</v>
+        <v>-0.02896766252053801</v>
       </c>
       <c r="G24">
-        <v>-0.01009776614356706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01072579409908006</v>
+      </c>
+      <c r="H24">
+        <v>-0.01332674023166702</v>
+      </c>
+      <c r="I24">
+        <v>-0.0125467387052142</v>
+      </c>
+      <c r="J24">
+        <v>0.01560789201614055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04899563841313823</v>
+        <v>0.04318799023176975</v>
       </c>
       <c r="C25">
-        <v>0.003510958734201699</v>
+        <v>-0.01820070653467224</v>
       </c>
       <c r="D25">
-        <v>0.01376533451354219</v>
+        <v>0.002351990793202485</v>
       </c>
       <c r="E25">
-        <v>0.03969191713447163</v>
+        <v>0.03644769130344965</v>
       </c>
       <c r="F25">
-        <v>0.004756112407089651</v>
+        <v>-0.03176478085969456</v>
       </c>
       <c r="G25">
-        <v>-0.009483229713335799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003895630294962975</v>
+      </c>
+      <c r="H25">
+        <v>-0.009398649234162643</v>
+      </c>
+      <c r="I25">
+        <v>-0.01450273643739578</v>
+      </c>
+      <c r="J25">
+        <v>0.004502667880926023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.002958297689417358</v>
+        <v>0.01008875350462792</v>
       </c>
       <c r="C26">
-        <v>0.01593570194721232</v>
+        <v>-0.01724082308062772</v>
       </c>
       <c r="D26">
-        <v>0.0001360107680095681</v>
+        <v>-0.004608708870822218</v>
       </c>
       <c r="E26">
-        <v>0.05464417329663342</v>
+        <v>0.04954782995082244</v>
       </c>
       <c r="F26">
-        <v>0.0213202561656456</v>
+        <v>-0.03130090205589314</v>
       </c>
       <c r="G26">
-        <v>0.02081246142044448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.007926270625195285</v>
+      </c>
+      <c r="H26">
+        <v>-0.03265084412937334</v>
+      </c>
+      <c r="I26">
+        <v>-0.003449514116570997</v>
+      </c>
+      <c r="J26">
+        <v>0.01973399119740266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1126863674349112</v>
+        <v>0.0878098056978399</v>
       </c>
       <c r="C27">
-        <v>0.016079565686668</v>
+        <v>-0.02740089950836047</v>
       </c>
       <c r="D27">
-        <v>-0.001466413761730561</v>
+        <v>0.02939189060749138</v>
       </c>
       <c r="E27">
-        <v>0.1114679683539788</v>
+        <v>0.04960922341474621</v>
       </c>
       <c r="F27">
-        <v>0.004698270984642266</v>
+        <v>-0.0716254613698868</v>
       </c>
       <c r="G27">
-        <v>-0.02318478422059343</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.003566501030171571</v>
+      </c>
+      <c r="H27">
+        <v>-0.00681970910927005</v>
+      </c>
+      <c r="I27">
+        <v>0.0007221607843021624</v>
+      </c>
+      <c r="J27">
+        <v>0.02707368931810847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01327809509803422</v>
+        <v>0.02255819147609029</v>
       </c>
       <c r="C28">
-        <v>-0.2393358926784276</v>
+        <v>0.2326684449938861</v>
       </c>
       <c r="D28">
-        <v>0.01718342653486275</v>
+        <v>-0.008701549943844878</v>
       </c>
       <c r="E28">
-        <v>0.02196801136306314</v>
+        <v>0.03381652105831418</v>
       </c>
       <c r="F28">
-        <v>0.00404814473938476</v>
+        <v>-0.01984845145038976</v>
       </c>
       <c r="G28">
-        <v>-0.04650965028557102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02071895530262734</v>
+      </c>
+      <c r="H28">
+        <v>0.04537906406517354</v>
+      </c>
+      <c r="I28">
+        <v>0.1580251502427861</v>
+      </c>
+      <c r="J28">
+        <v>0.06154960482599688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.01947279057501018</v>
+        <v>0.01908206634895854</v>
       </c>
       <c r="C29">
-        <v>0.01714139981080617</v>
+        <v>-0.01812338565930262</v>
       </c>
       <c r="D29">
-        <v>-0.01272086257648458</v>
+        <v>0.01800576846166965</v>
       </c>
       <c r="E29">
-        <v>0.04109704977862912</v>
+        <v>0.01968480069875265</v>
       </c>
       <c r="F29">
-        <v>0.01239979287554866</v>
+        <v>-0.04365077625414011</v>
       </c>
       <c r="G29">
-        <v>0.05036604651233912</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01371723424536744</v>
+      </c>
+      <c r="H29">
+        <v>-0.05723603118134477</v>
+      </c>
+      <c r="I29">
+        <v>0.01082097964407297</v>
+      </c>
+      <c r="J29">
+        <v>0.003516740435540179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1035588750075763</v>
+        <v>0.09972022672245312</v>
       </c>
       <c r="C30">
-        <v>0.007102813787466142</v>
+        <v>-0.0336124730191428</v>
       </c>
       <c r="D30">
-        <v>0.003601357144571062</v>
+        <v>0.02944824856861734</v>
       </c>
       <c r="E30">
-        <v>0.1300092373439847</v>
+        <v>0.09680675371598517</v>
       </c>
       <c r="F30">
-        <v>0.01937392862887936</v>
+        <v>-0.06981641084021518</v>
       </c>
       <c r="G30">
-        <v>-0.06996670663391734</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01948274248393277</v>
+      </c>
+      <c r="H30">
+        <v>-0.00885141614942188</v>
+      </c>
+      <c r="I30">
+        <v>-0.02987078096010537</v>
+      </c>
+      <c r="J30">
+        <v>-0.009291026760486281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.0551785448001162</v>
+        <v>0.05727954537919751</v>
       </c>
       <c r="C31">
-        <v>0.01161647829384912</v>
+        <v>-0.01910598752105292</v>
       </c>
       <c r="D31">
-        <v>-0.01683466075552588</v>
+        <v>0.01485299275733158</v>
       </c>
       <c r="E31">
-        <v>-0.01058138637284317</v>
+        <v>0.01732067792040787</v>
       </c>
       <c r="F31">
-        <v>0.01767462238102705</v>
+        <v>0.001988051531277961</v>
       </c>
       <c r="G31">
-        <v>0.02733035258346542</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03657855981370037</v>
+      </c>
+      <c r="H31">
+        <v>-0.04770473001675966</v>
+      </c>
+      <c r="I31">
+        <v>0.01694728885507223</v>
+      </c>
+      <c r="J31">
+        <v>0.00603665076777526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06640123128071224</v>
+        <v>0.04510066252986016</v>
       </c>
       <c r="C32">
-        <v>0.02541665153210379</v>
+        <v>-0.04668763732403251</v>
       </c>
       <c r="D32">
-        <v>0.007638441793093344</v>
+        <v>0.01585215907843433</v>
       </c>
       <c r="E32">
-        <v>0.1219250296794619</v>
+        <v>0.06302187394797334</v>
       </c>
       <c r="F32">
-        <v>-0.0200634878146006</v>
+        <v>-0.08331684275807012</v>
       </c>
       <c r="G32">
-        <v>0.0312434059476194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01840895286638727</v>
+      </c>
+      <c r="H32">
+        <v>-0.04693975739528116</v>
+      </c>
+      <c r="I32">
+        <v>0.02417507951414875</v>
+      </c>
+      <c r="J32">
+        <v>-0.006506240797786375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06893446542655272</v>
+        <v>0.05816890454898073</v>
       </c>
       <c r="C33">
-        <v>0.02680213767159807</v>
+        <v>-0.04289723918234486</v>
       </c>
       <c r="D33">
-        <v>0.003945377445687767</v>
+        <v>0.002553322423088216</v>
       </c>
       <c r="E33">
-        <v>0.07496534310878146</v>
+        <v>0.06979520086816639</v>
       </c>
       <c r="F33">
-        <v>0.03364421071859555</v>
+        <v>-0.05577464410207177</v>
       </c>
       <c r="G33">
-        <v>0.02562715569744791</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01401570960205878</v>
+      </c>
+      <c r="H33">
+        <v>-0.04954138555363349</v>
+      </c>
+      <c r="I33">
+        <v>-0.01313478402019627</v>
+      </c>
+      <c r="J33">
+        <v>0.00857506874189388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04707998899798668</v>
+        <v>0.04220255265970399</v>
       </c>
       <c r="C34">
-        <v>0.01101651900440697</v>
+        <v>-0.02302121104909252</v>
       </c>
       <c r="D34">
-        <v>0.01050361688182291</v>
+        <v>0.007909050078787904</v>
       </c>
       <c r="E34">
-        <v>0.02396652835598131</v>
+        <v>0.02765487004689021</v>
       </c>
       <c r="F34">
-        <v>-0.005192805284292162</v>
+        <v>-0.02487250763192987</v>
       </c>
       <c r="G34">
-        <v>0.01051592118262891</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.001804300590748487</v>
+      </c>
+      <c r="H34">
+        <v>-0.02043568548858966</v>
+      </c>
+      <c r="I34">
+        <v>-0.0136215259132518</v>
+      </c>
+      <c r="J34">
+        <v>-0.001375215804962052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01250032399089559</v>
+        <v>0.01372283519341222</v>
       </c>
       <c r="C36">
-        <v>-0.01037156509222526</v>
+        <v>-0.0005770980635249053</v>
       </c>
       <c r="D36">
-        <v>-0.003136233880226276</v>
+        <v>0.006070060335618843</v>
       </c>
       <c r="E36">
-        <v>0.02497295470077154</v>
+        <v>0.01961039668535928</v>
       </c>
       <c r="F36">
-        <v>0.01026330559412729</v>
+        <v>-0.02529578631945081</v>
       </c>
       <c r="G36">
-        <v>0.0159018264784379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0144986092015991</v>
+      </c>
+      <c r="H36">
+        <v>-0.03212461952038509</v>
+      </c>
+      <c r="I36">
+        <v>0.007467115887769107</v>
+      </c>
+      <c r="J36">
+        <v>-0.004660977134215378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05341543867935273</v>
+        <v>0.0302302647969039</v>
       </c>
       <c r="C38">
-        <v>0.002133028187653385</v>
+        <v>-0.00591130680492688</v>
       </c>
       <c r="D38">
-        <v>-0.01514146335199646</v>
+        <v>0.006551637193815242</v>
       </c>
       <c r="E38">
-        <v>0.04124877942523587</v>
+        <v>0.03394766364034756</v>
       </c>
       <c r="F38">
-        <v>0.0112165793054807</v>
+        <v>-0.04314334190427654</v>
       </c>
       <c r="G38">
-        <v>0.03537635474315891</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02091729766115794</v>
+      </c>
+      <c r="H38">
+        <v>-0.01793646507584903</v>
+      </c>
+      <c r="I38">
+        <v>0.003211861039356443</v>
+      </c>
+      <c r="J38">
+        <v>-0.02403758480120301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07590088135615625</v>
+        <v>0.06112059095997833</v>
       </c>
       <c r="C39">
-        <v>0.01302818760000519</v>
+        <v>-0.03482667301735495</v>
       </c>
       <c r="D39">
-        <v>0.007598209494170928</v>
+        <v>0.0185499453307706</v>
       </c>
       <c r="E39">
-        <v>0.04490431768904878</v>
+        <v>0.05254474016340559</v>
       </c>
       <c r="F39">
-        <v>0.01863039798646948</v>
+        <v>-0.03112639017569635</v>
       </c>
       <c r="G39">
-        <v>-0.007592077608928688</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.007984579385329192</v>
+      </c>
+      <c r="H39">
+        <v>-0.01707078992502071</v>
+      </c>
+      <c r="I39">
+        <v>-0.02756622061134155</v>
+      </c>
+      <c r="J39">
+        <v>-0.003198409526235208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07223717355237411</v>
+        <v>0.05688745961508864</v>
       </c>
       <c r="C40">
-        <v>0.0270525553490164</v>
+        <v>-0.03187147723298399</v>
       </c>
       <c r="D40">
-        <v>0.01907752630631844</v>
+        <v>0.02044563255585879</v>
       </c>
       <c r="E40">
-        <v>0.1131834466676325</v>
+        <v>0.09594050833213195</v>
       </c>
       <c r="F40">
-        <v>0.02299214625190573</v>
+        <v>-0.06235214643420792</v>
       </c>
       <c r="G40">
-        <v>0.08244660702758261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.003063500307139325</v>
+      </c>
+      <c r="H40">
+        <v>-0.07839282603969608</v>
+      </c>
+      <c r="I40">
+        <v>0.0101706127994211</v>
+      </c>
+      <c r="J40">
+        <v>0.02543238334636328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003935830087850214</v>
+        <v>0.001053929997906295</v>
       </c>
       <c r="C41">
-        <v>0.01194088237610894</v>
+        <v>-0.01069303052357297</v>
       </c>
       <c r="D41">
-        <v>-0.01168905941879884</v>
+        <v>0.003293196012881869</v>
       </c>
       <c r="E41">
-        <v>0.01508089849513251</v>
+        <v>0.01019920786733884</v>
       </c>
       <c r="F41">
-        <v>0.02175665263950697</v>
+        <v>-0.01702537125406148</v>
       </c>
       <c r="G41">
-        <v>0.03112177755543399</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02532566120997858</v>
+      </c>
+      <c r="H41">
+        <v>-0.03864779597068467</v>
+      </c>
+      <c r="I41">
+        <v>0.02411144443073424</v>
+      </c>
+      <c r="J41">
+        <v>0.01557807414110146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.132619503376871</v>
+        <v>0.2418236578533949</v>
       </c>
       <c r="C42">
-        <v>0.169883488006263</v>
+        <v>-0.1062346598176422</v>
       </c>
       <c r="D42">
-        <v>0.9169337481506257</v>
+        <v>-0.9128778836134185</v>
       </c>
       <c r="E42">
-        <v>-0.1773317337696736</v>
+        <v>0.02136439330651527</v>
       </c>
       <c r="F42">
-        <v>-0.03116231594542796</v>
+        <v>0.253763510417894</v>
       </c>
       <c r="G42">
-        <v>-0.1568488354230863</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.0006017692192319559</v>
+      </c>
+      <c r="H42">
+        <v>0.01743350456123998</v>
+      </c>
+      <c r="I42">
+        <v>0.04904773191851897</v>
+      </c>
+      <c r="J42">
+        <v>0.01795793794032082</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.006911912798587611</v>
+        <v>0.00241560385980908</v>
       </c>
       <c r="C43">
-        <v>0.01493510445836702</v>
+        <v>-0.01317850027988923</v>
       </c>
       <c r="D43">
-        <v>-0.01081710992465127</v>
+        <v>0.003602125689178059</v>
       </c>
       <c r="E43">
-        <v>0.03689687046648227</v>
+        <v>0.02145522665240506</v>
       </c>
       <c r="F43">
-        <v>-0.001185655249656756</v>
+        <v>-0.02401919099236297</v>
       </c>
       <c r="G43">
-        <v>0.02574663826944287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.006342221152194196</v>
+      </c>
+      <c r="H43">
+        <v>-0.03650771389250766</v>
+      </c>
+      <c r="I43">
+        <v>0.01424212403313688</v>
+      </c>
+      <c r="J43">
+        <v>0.01306811229001174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04205616543508906</v>
+        <v>0.02821302551537345</v>
       </c>
       <c r="C44">
-        <v>0.03375512986005647</v>
+        <v>-0.0298725181976529</v>
       </c>
       <c r="D44">
-        <v>0.01225523636131491</v>
+        <v>-0.002009036033523798</v>
       </c>
       <c r="E44">
-        <v>0.1139904387528687</v>
+        <v>0.08787575633071419</v>
       </c>
       <c r="F44">
-        <v>0.05656223427475416</v>
+        <v>-0.08974594315313994</v>
       </c>
       <c r="G44">
-        <v>0.1244516650146546</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02375435668435036</v>
+      </c>
+      <c r="H44">
+        <v>-0.1111216439464912</v>
+      </c>
+      <c r="I44">
+        <v>0.03227977226167206</v>
+      </c>
+      <c r="J44">
+        <v>0.009113047016527171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02132805762619695</v>
+        <v>0.02084607840575515</v>
       </c>
       <c r="C46">
-        <v>0.01401552307254132</v>
+        <v>-0.02514899203340925</v>
       </c>
       <c r="D46">
-        <v>-0.01933993131388065</v>
+        <v>0.01622247792400389</v>
       </c>
       <c r="E46">
-        <v>0.02666161978085002</v>
+        <v>0.0344882955946607</v>
       </c>
       <c r="F46">
-        <v>0.024484371592058</v>
+        <v>-0.03734935196361298</v>
       </c>
       <c r="G46">
-        <v>0.04691923488006862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01496921998728695</v>
+      </c>
+      <c r="H46">
+        <v>-0.05898801700264854</v>
+      </c>
+      <c r="I46">
+        <v>0.01670374029736466</v>
+      </c>
+      <c r="J46">
+        <v>0.02138974405101336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.07935897110133529</v>
+        <v>0.08862258916111339</v>
       </c>
       <c r="C47">
-        <v>0.007506635087783965</v>
+        <v>-0.01793006585660721</v>
       </c>
       <c r="D47">
-        <v>-0.0182353256080955</v>
+        <v>0.02192467720785834</v>
       </c>
       <c r="E47">
-        <v>-0.01047967484097426</v>
+        <v>0.001613171957871564</v>
       </c>
       <c r="F47">
-        <v>0.01048006380956697</v>
+        <v>0.0002166093683645964</v>
       </c>
       <c r="G47">
-        <v>0.04991796767763233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03225310112979987</v>
+      </c>
+      <c r="H47">
+        <v>-0.06737466479813729</v>
+      </c>
+      <c r="I47">
+        <v>0.02530642652089743</v>
+      </c>
+      <c r="J47">
+        <v>0.01716125990691513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01468717572483462</v>
+        <v>0.01435585769026683</v>
       </c>
       <c r="C48">
-        <v>0.01510122490349426</v>
+        <v>-0.01876486558307312</v>
       </c>
       <c r="D48">
-        <v>-0.008124018927954023</v>
+        <v>0.004654074505084631</v>
       </c>
       <c r="E48">
-        <v>0.03906784170763856</v>
+        <v>0.02395063585326444</v>
       </c>
       <c r="F48">
-        <v>0.01686727232490006</v>
+        <v>-0.03393603421772043</v>
       </c>
       <c r="G48">
-        <v>0.01291724943932373</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.008608387057701485</v>
+      </c>
+      <c r="H48">
+        <v>-0.02191259773864052</v>
+      </c>
+      <c r="I48">
+        <v>0.01373107616694416</v>
+      </c>
+      <c r="J48">
+        <v>0.01178060551260074</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07710723674531948</v>
+        <v>0.08135243489756236</v>
       </c>
       <c r="C50">
-        <v>0.01922441324592612</v>
+        <v>-0.03124183775900081</v>
       </c>
       <c r="D50">
-        <v>-0.02166508165191951</v>
+        <v>0.01527554702717309</v>
       </c>
       <c r="E50">
-        <v>-0.01964999655556605</v>
+        <v>0.004012158834329527</v>
       </c>
       <c r="F50">
-        <v>0.01139824535130779</v>
+        <v>-0.009067174500087226</v>
       </c>
       <c r="G50">
-        <v>0.03075579946039084</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.004346105798699647</v>
+      </c>
+      <c r="H50">
+        <v>-0.05045045722923734</v>
+      </c>
+      <c r="I50">
+        <v>0.01133363737799232</v>
+      </c>
+      <c r="J50">
+        <v>-0.02723064723865906</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06887881178511517</v>
+        <v>0.04716810035704703</v>
       </c>
       <c r="C51">
-        <v>-0.02210764856772381</v>
+        <v>0.004027285077806279</v>
       </c>
       <c r="D51">
-        <v>0.01216581668829597</v>
+        <v>0.008602095865144613</v>
       </c>
       <c r="E51">
-        <v>0.07633905020990012</v>
+        <v>0.08664230823374136</v>
       </c>
       <c r="F51">
-        <v>0.05383000594811389</v>
+        <v>-0.052995739154916</v>
       </c>
       <c r="G51">
-        <v>0.02810857841601995</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04172316943434401</v>
+      </c>
+      <c r="H51">
+        <v>-0.05386561501376896</v>
+      </c>
+      <c r="I51">
+        <v>0.04120792373162175</v>
+      </c>
+      <c r="J51">
+        <v>0.01601254517599865</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1454254139087939</v>
+        <v>0.1299054658090237</v>
       </c>
       <c r="C53">
-        <v>0.01113213038059115</v>
+        <v>-0.03885509182860748</v>
       </c>
       <c r="D53">
-        <v>-0.04657660165683777</v>
+        <v>0.04614626347343614</v>
       </c>
       <c r="E53">
-        <v>-0.02604608765662453</v>
+        <v>-0.01986154547623268</v>
       </c>
       <c r="F53">
-        <v>0.003889168329389444</v>
+        <v>0.01747322807070887</v>
       </c>
       <c r="G53">
-        <v>0.02060663015676898</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02536728332617593</v>
+      </c>
+      <c r="H53">
+        <v>-0.01141123644620842</v>
+      </c>
+      <c r="I53">
+        <v>0.01618446130029384</v>
+      </c>
+      <c r="J53">
+        <v>0.06849857806716533</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02556259025255141</v>
+        <v>0.0243279769637766</v>
       </c>
       <c r="C54">
-        <v>-0.005059526972045012</v>
+        <v>-0.004993731391772508</v>
       </c>
       <c r="D54">
-        <v>-0.01502840364319699</v>
+        <v>0.0234917389049655</v>
       </c>
       <c r="E54">
-        <v>0.04204381719439603</v>
+        <v>0.01994976913375259</v>
       </c>
       <c r="F54">
-        <v>0.03438883704895473</v>
+        <v>-0.04286839553371488</v>
       </c>
       <c r="G54">
-        <v>0.05584601895964631</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02609074090637682</v>
+      </c>
+      <c r="H54">
+        <v>-0.06301615476391026</v>
+      </c>
+      <c r="I54">
+        <v>0.04032191344556801</v>
+      </c>
+      <c r="J54">
+        <v>-0.0001126282727163103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09750270489888449</v>
+        <v>0.1018128014343956</v>
       </c>
       <c r="C55">
-        <v>-0.001041408596217204</v>
+        <v>-0.02174713007436897</v>
       </c>
       <c r="D55">
-        <v>-0.03855864403363694</v>
+        <v>0.02969291764688108</v>
       </c>
       <c r="E55">
-        <v>0.007211640206022794</v>
+        <v>-0.03277443383640211</v>
       </c>
       <c r="F55">
-        <v>-0.02147534787919081</v>
+        <v>-0.008197079024599178</v>
       </c>
       <c r="G55">
-        <v>0.008634108231026045</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.009269900555896727</v>
+      </c>
+      <c r="H55">
+        <v>-0.0280399749464795</v>
+      </c>
+      <c r="I55">
+        <v>-0.001154232675924788</v>
+      </c>
+      <c r="J55">
+        <v>0.06447071744654644</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1783612026955158</v>
+        <v>0.1692963401526529</v>
       </c>
       <c r="C56">
-        <v>-0.0156117122018756</v>
+        <v>-0.02219697225905761</v>
       </c>
       <c r="D56">
-        <v>-0.08914517692948502</v>
+        <v>0.08728143527642548</v>
       </c>
       <c r="E56">
-        <v>-0.05780244111348833</v>
+        <v>-0.06609322717353254</v>
       </c>
       <c r="F56">
-        <v>-0.04971466782385926</v>
+        <v>0.0367824693509326</v>
       </c>
       <c r="G56">
-        <v>-0.00719554067429254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01790242305107281</v>
+      </c>
+      <c r="H56">
+        <v>0.02866251110248768</v>
+      </c>
+      <c r="I56">
+        <v>-0.02787224574448593</v>
+      </c>
+      <c r="J56">
+        <v>0.08484186672209769</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09208316237308625</v>
+        <v>0.07135414540602099</v>
       </c>
       <c r="C57">
-        <v>0.02024802486990425</v>
+        <v>-0.02588481681802685</v>
       </c>
       <c r="D57">
-        <v>-0.01518002247067242</v>
+        <v>0.01047166086314192</v>
       </c>
       <c r="E57">
-        <v>0.06922616532843039</v>
+        <v>0.05849722581423371</v>
       </c>
       <c r="F57">
-        <v>0.005165985208064076</v>
+        <v>-0.04662296272351987</v>
       </c>
       <c r="G57">
-        <v>0.04416083520599957</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0008919389652612665</v>
+      </c>
+      <c r="H57">
+        <v>-0.04237780899330446</v>
+      </c>
+      <c r="I57">
+        <v>-0.009913438432901055</v>
+      </c>
+      <c r="J57">
+        <v>0.02346173560990897</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1673409502749306</v>
+        <v>0.1932742561764387</v>
       </c>
       <c r="C58">
-        <v>-0.006855207308959874</v>
+        <v>-0.03559177686571349</v>
       </c>
       <c r="D58">
-        <v>0.07488068126498573</v>
+        <v>-0.0160774160255408</v>
       </c>
       <c r="E58">
-        <v>0.1198406246053395</v>
+        <v>0.1516384849176588</v>
       </c>
       <c r="F58">
-        <v>-0.1086622311977975</v>
+        <v>-0.1077534879784078</v>
       </c>
       <c r="G58">
-        <v>0.2525005273206044</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1821380759208974</v>
+      </c>
+      <c r="H58">
+        <v>-0.3152495606330721</v>
+      </c>
+      <c r="I58">
+        <v>0.1468502968477188</v>
+      </c>
+      <c r="J58">
+        <v>-0.4949288852642743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.002384206561390235</v>
+        <v>0.02646737634275132</v>
       </c>
       <c r="C59">
-        <v>-0.2033490763161785</v>
+        <v>0.198570601267034</v>
       </c>
       <c r="D59">
-        <v>-0.01485807541882723</v>
+        <v>0.0260121763437036</v>
       </c>
       <c r="E59">
-        <v>0.0441833985740893</v>
+        <v>0.05597120767420007</v>
       </c>
       <c r="F59">
-        <v>0.005668990904496559</v>
+        <v>-0.0153835346619129</v>
       </c>
       <c r="G59">
-        <v>-0.0423339289334329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0006755635994699264</v>
+      </c>
+      <c r="H59">
+        <v>0.03268990704037315</v>
+      </c>
+      <c r="I59">
+        <v>0.07890220524819691</v>
+      </c>
+      <c r="J59">
+        <v>0.002137633807949862</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.184587368359249</v>
+        <v>0.181697383812009</v>
       </c>
       <c r="C60">
-        <v>-0.1162595916689488</v>
+        <v>0.05940603051215441</v>
       </c>
       <c r="D60">
-        <v>-0.008796664125755426</v>
+        <v>0.03351363368643775</v>
       </c>
       <c r="E60">
-        <v>0.1754067131354417</v>
+        <v>0.200941823784669</v>
       </c>
       <c r="F60">
-        <v>0.04371618082783654</v>
+        <v>-0.06948379820111919</v>
       </c>
       <c r="G60">
-        <v>-0.1631968896513723</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05499209729359517</v>
+      </c>
+      <c r="H60">
+        <v>0.235164641854871</v>
+      </c>
+      <c r="I60">
+        <v>-0.1238945872641247</v>
+      </c>
+      <c r="J60">
+        <v>-0.0161752769513672</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04842362019977305</v>
+        <v>0.03785074536178087</v>
       </c>
       <c r="C61">
-        <v>0.003732618608478807</v>
+        <v>-0.0188579565938088</v>
       </c>
       <c r="D61">
-        <v>0.01446225405295036</v>
+        <v>0.001562938972739095</v>
       </c>
       <c r="E61">
-        <v>0.04441428971959571</v>
+        <v>0.03958290018106029</v>
       </c>
       <c r="F61">
-        <v>0.01667903021607053</v>
+        <v>-0.02468298022742388</v>
       </c>
       <c r="G61">
-        <v>-0.02048494803052316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.005392149535122895</v>
+      </c>
+      <c r="H61">
+        <v>-0.0041014757249999</v>
+      </c>
+      <c r="I61">
+        <v>-0.03451677585739996</v>
+      </c>
+      <c r="J61">
+        <v>-0.02048300388547398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04033295056916085</v>
+        <v>0.02769750605903984</v>
       </c>
       <c r="C63">
-        <v>-0.009017032127514103</v>
+        <v>-0.01356346119282803</v>
       </c>
       <c r="D63">
-        <v>-0.007415620195204344</v>
+        <v>0.009965725241225123</v>
       </c>
       <c r="E63">
-        <v>0.04266022627555701</v>
+        <v>0.02941599763277173</v>
       </c>
       <c r="F63">
-        <v>0.009414509629419678</v>
+        <v>-0.02250473922378209</v>
       </c>
       <c r="G63">
-        <v>0.01923315475601594</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.005339292986064355</v>
+      </c>
+      <c r="H63">
+        <v>-0.0444441641675883</v>
+      </c>
+      <c r="I63">
+        <v>0.02681582629257339</v>
+      </c>
+      <c r="J63">
+        <v>0.04544573612989938</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.0923811773797943</v>
+        <v>0.06670697192270988</v>
       </c>
       <c r="C64">
-        <v>0.02902493859940199</v>
+        <v>-0.0404105763239033</v>
       </c>
       <c r="D64">
-        <v>-0.04446791859863135</v>
+        <v>0.03133346672125539</v>
       </c>
       <c r="E64">
-        <v>0.06865917922363066</v>
+        <v>0.01869708664467027</v>
       </c>
       <c r="F64">
-        <v>0.08800187743915089</v>
+        <v>-0.07736837265786994</v>
       </c>
       <c r="G64">
-        <v>-0.04832395005759226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06399464657592968</v>
+      </c>
+      <c r="H64">
+        <v>0.008395508857452615</v>
+      </c>
+      <c r="I64">
+        <v>0.007176447614574371</v>
+      </c>
+      <c r="J64">
+        <v>0.06585782674079534</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01408801884882862</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.004017568349434887</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0006155455606183111</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.003363378232090944</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002016368103277818</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01887715750085378</v>
+      </c>
+      <c r="H65">
+        <v>0.0009421978357251935</v>
+      </c>
+      <c r="I65">
+        <v>-0.005955387403065243</v>
+      </c>
+      <c r="J65">
+        <v>0.002762003044331555</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.0997974634528688</v>
+        <v>0.07203341541362203</v>
       </c>
       <c r="C66">
-        <v>0.01796198257188032</v>
+        <v>-0.04716969771867832</v>
       </c>
       <c r="D66">
-        <v>-0.02650146202596768</v>
+        <v>0.04228823225546325</v>
       </c>
       <c r="E66">
-        <v>0.08451065410158433</v>
+        <v>0.06865017081723204</v>
       </c>
       <c r="F66">
-        <v>0.03632893377407852</v>
+        <v>-0.04251391194025097</v>
       </c>
       <c r="G66">
-        <v>-0.002014225384900283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01060496658394447</v>
+      </c>
+      <c r="H66">
+        <v>-0.01215579920967109</v>
+      </c>
+      <c r="I66">
+        <v>-0.04968045375589179</v>
+      </c>
+      <c r="J66">
+        <v>0.02194987151202608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.05968611740613864</v>
+        <v>0.04012734333637561</v>
       </c>
       <c r="C67">
-        <v>-0.01975394338594812</v>
+        <v>0.008807086112521154</v>
       </c>
       <c r="D67">
-        <v>-0.005328174432583448</v>
+        <v>0.00561821220728511</v>
       </c>
       <c r="E67">
-        <v>0.03326554588734301</v>
+        <v>0.03211697673931523</v>
       </c>
       <c r="F67">
-        <v>0.01164823408443223</v>
+        <v>-0.0284729004241026</v>
       </c>
       <c r="G67">
-        <v>0.03346848619942997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02876628955534177</v>
+      </c>
+      <c r="H67">
+        <v>-0.003047822063943696</v>
+      </c>
+      <c r="I67">
+        <v>-0.03408033951864479</v>
+      </c>
+      <c r="J67">
+        <v>-0.01386410277531827</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.00121106604867046</v>
+        <v>0.03512908411409546</v>
       </c>
       <c r="C68">
-        <v>-0.2422192893159663</v>
+        <v>0.2322545003285068</v>
       </c>
       <c r="D68">
-        <v>0.001998349074086308</v>
+        <v>0.01711480386038512</v>
       </c>
       <c r="E68">
-        <v>0.02694059492712221</v>
+        <v>0.04108261071297273</v>
       </c>
       <c r="F68">
-        <v>-0.01091191000351482</v>
+        <v>-0.01213405687023029</v>
       </c>
       <c r="G68">
-        <v>-0.03273308948100993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01255708114695185</v>
+      </c>
+      <c r="H68">
+        <v>0.0383775525293085</v>
+      </c>
+      <c r="I68">
+        <v>0.1718662702379379</v>
+      </c>
+      <c r="J68">
+        <v>0.02249639008173651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06490733494712558</v>
+        <v>0.06860818918728362</v>
       </c>
       <c r="C69">
-        <v>0.005759505543442319</v>
+        <v>-0.01571176675905525</v>
       </c>
       <c r="D69">
-        <v>-0.02784037645983681</v>
+        <v>0.02891527343782297</v>
       </c>
       <c r="E69">
-        <v>0.002273427372170082</v>
+        <v>0.01242520925423284</v>
       </c>
       <c r="F69">
-        <v>0.006490565874678142</v>
+        <v>0.0004924226450269433</v>
       </c>
       <c r="G69">
-        <v>0.01861567305096152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02426718672406063</v>
+      </c>
+      <c r="H69">
+        <v>-0.04592125564296071</v>
+      </c>
+      <c r="I69">
+        <v>-0.001974038312894106</v>
+      </c>
+      <c r="J69">
+        <v>0.01294930531138152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.003705755379867027</v>
+        <v>0.03928058285563642</v>
       </c>
       <c r="C71">
-        <v>-0.2535840584842117</v>
+        <v>0.2477325780565155</v>
       </c>
       <c r="D71">
-        <v>0.006966037769137241</v>
+        <v>-0.0009480266872468938</v>
       </c>
       <c r="E71">
-        <v>0.05775639146040391</v>
+        <v>0.07255476717771424</v>
       </c>
       <c r="F71">
-        <v>0.004269580359809306</v>
+        <v>-0.005904208907164574</v>
       </c>
       <c r="G71">
-        <v>-0.1174006502129823</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01210283191611862</v>
+      </c>
+      <c r="H71">
+        <v>0.05525996475499777</v>
+      </c>
+      <c r="I71">
+        <v>0.1519201030862221</v>
+      </c>
+      <c r="J71">
+        <v>-0.003656918466394947</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1135989394214226</v>
+        <v>0.1151984565593241</v>
       </c>
       <c r="C72">
-        <v>-0.0195165806892295</v>
+        <v>0.0003685087503463057</v>
       </c>
       <c r="D72">
-        <v>-0.03048100711942815</v>
+        <v>0.05999044421742165</v>
       </c>
       <c r="E72">
-        <v>0.0833542753095127</v>
+        <v>0.05988042920877625</v>
       </c>
       <c r="F72">
-        <v>0.006306764650282341</v>
+        <v>-0.05944432776145689</v>
       </c>
       <c r="G72">
-        <v>0.02819613794585738</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03057668802026412</v>
+      </c>
+      <c r="H72">
+        <v>-0.0004229715696149698</v>
+      </c>
+      <c r="I72">
+        <v>0.001550116918881994</v>
+      </c>
+      <c r="J72">
+        <v>-0.07923260815394254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2778700773685541</v>
+        <v>0.2738946038521697</v>
       </c>
       <c r="C73">
-        <v>-0.2120723792961867</v>
+        <v>0.1287033709145068</v>
       </c>
       <c r="D73">
-        <v>0.04281520960977204</v>
+        <v>0.01419898019840093</v>
       </c>
       <c r="E73">
-        <v>0.2902374203737171</v>
+        <v>0.3079384880482648</v>
       </c>
       <c r="F73">
-        <v>0.03762967263159821</v>
+        <v>-0.08966642466540969</v>
       </c>
       <c r="G73">
-        <v>-0.4037870713865859</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1218776053888221</v>
+      </c>
+      <c r="H73">
+        <v>0.4336700654832618</v>
+      </c>
+      <c r="I73">
+        <v>-0.34353918610001</v>
+      </c>
+      <c r="J73">
+        <v>-0.190356556402473</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1557018916349554</v>
+        <v>0.1501712392892432</v>
       </c>
       <c r="C74">
-        <v>-0.005139909270407913</v>
+        <v>-0.0208817163600563</v>
       </c>
       <c r="D74">
-        <v>-0.05364541172796617</v>
+        <v>0.04775265934543307</v>
       </c>
       <c r="E74">
-        <v>0.003861846656913903</v>
+        <v>-0.02503611174333166</v>
       </c>
       <c r="F74">
-        <v>-0.03890952469405509</v>
+        <v>0.02582132751026503</v>
       </c>
       <c r="G74">
-        <v>-0.01069815602740019</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01219729459031415</v>
+      </c>
+      <c r="H74">
+        <v>0.02051215231717535</v>
+      </c>
+      <c r="I74">
+        <v>-0.02767230146323462</v>
+      </c>
+      <c r="J74">
+        <v>0.09596548144624266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2348049636094792</v>
+        <v>0.2418934769738152</v>
       </c>
       <c r="C75">
-        <v>-0.01059751769995058</v>
+        <v>-0.03112783363969069</v>
       </c>
       <c r="D75">
-        <v>-0.07421314043611928</v>
+        <v>0.09950058467248432</v>
       </c>
       <c r="E75">
-        <v>-0.1127004837593652</v>
+        <v>-0.09455521806321762</v>
       </c>
       <c r="F75">
-        <v>-0.03794735117874275</v>
+        <v>0.08214615952347047</v>
       </c>
       <c r="G75">
-        <v>0.004447084875922036</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.01583111788083808</v>
+      </c>
+      <c r="H75">
+        <v>0.01127531290856357</v>
+      </c>
+      <c r="I75">
+        <v>0.01740803195536531</v>
+      </c>
+      <c r="J75">
+        <v>0.151578490337807</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2391790932517357</v>
+        <v>0.2605208512371058</v>
       </c>
       <c r="C76">
-        <v>-0.009019228282457678</v>
+        <v>-0.02614500049928695</v>
       </c>
       <c r="D76">
-        <v>-0.1088144057684624</v>
+        <v>0.1279943052084392</v>
       </c>
       <c r="E76">
-        <v>-0.0792514001610735</v>
+        <v>-0.1280222889627013</v>
       </c>
       <c r="F76">
-        <v>-0.04189855632571416</v>
+        <v>0.08299170345286354</v>
       </c>
       <c r="G76">
-        <v>-0.008136370741828337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.02953110800597111</v>
+      </c>
+      <c r="H76">
+        <v>0.01575640814316114</v>
+      </c>
+      <c r="I76">
+        <v>-0.06295798502459582</v>
+      </c>
+      <c r="J76">
+        <v>0.1712299653339256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1279287084498997</v>
+        <v>0.1301568519764998</v>
       </c>
       <c r="C77">
-        <v>0.01698652276111848</v>
+        <v>-0.04364457399547529</v>
       </c>
       <c r="D77">
-        <v>0.08362786743559784</v>
+        <v>-0.05299158537848794</v>
       </c>
       <c r="E77">
-        <v>0.1617916445366136</v>
+        <v>0.1273818367627214</v>
       </c>
       <c r="F77">
-        <v>-0.007431359407432603</v>
+        <v>-0.1226138703873674</v>
       </c>
       <c r="G77">
-        <v>0.1298042849463036</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02995146750409181</v>
+      </c>
+      <c r="H77">
+        <v>-0.1624557294536816</v>
+      </c>
+      <c r="I77">
+        <v>0.1612577619541226</v>
+      </c>
+      <c r="J77">
+        <v>0.09803393203117369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09389493940237935</v>
+        <v>0.08910941743813959</v>
       </c>
       <c r="C78">
-        <v>0.0321417127198925</v>
+        <v>-0.05520751602788784</v>
       </c>
       <c r="D78">
-        <v>0.02648140578410445</v>
+        <v>-0.003405836153200569</v>
       </c>
       <c r="E78">
-        <v>0.06959169334815911</v>
+        <v>0.05640638858586343</v>
       </c>
       <c r="F78">
-        <v>0.006529770453911759</v>
+        <v>-0.07015625614056122</v>
       </c>
       <c r="G78">
-        <v>-0.0282431767717124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.00817394865765912</v>
+      </c>
+      <c r="H78">
+        <v>-0.01160138576126715</v>
+      </c>
+      <c r="I78">
+        <v>0.0275383845518462</v>
+      </c>
+      <c r="J78">
+        <v>0.02497630916756775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07769778063148272</v>
+        <v>0.1226305566739318</v>
       </c>
       <c r="C80">
-        <v>-0.005074917919563224</v>
+        <v>0.136094184865355</v>
       </c>
       <c r="D80">
-        <v>0.02106679844880626</v>
+        <v>-0.2047065361299641</v>
       </c>
       <c r="E80">
-        <v>0.008510115410167399</v>
+        <v>-0.6191422981179441</v>
       </c>
       <c r="F80">
-        <v>-0.04360118802492245</v>
+        <v>-0.7084827318848251</v>
       </c>
       <c r="G80">
-        <v>0.2654593128644023</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.004104099870545817</v>
+      </c>
+      <c r="H80">
+        <v>0.1105370081240233</v>
+      </c>
+      <c r="I80">
+        <v>-0.06672051691230368</v>
+      </c>
+      <c r="J80">
+        <v>-0.09227379967739091</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.160658708116014</v>
+        <v>0.1719889229822463</v>
       </c>
       <c r="C81">
-        <v>-0.009080085870984007</v>
+        <v>-0.01293913682149751</v>
       </c>
       <c r="D81">
-        <v>-0.06553932729538979</v>
+        <v>0.08484954021890805</v>
       </c>
       <c r="E81">
-        <v>-0.1157375738575635</v>
+        <v>-0.1097607126938421</v>
       </c>
       <c r="F81">
-        <v>-0.06736703501100831</v>
+        <v>0.0905966958961293</v>
       </c>
       <c r="G81">
-        <v>0.001682421643859564</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.01444144606913288</v>
+      </c>
+      <c r="H81">
+        <v>0.006591448178912616</v>
+      </c>
+      <c r="I81">
+        <v>0.003168630108194884</v>
+      </c>
+      <c r="J81">
+        <v>0.08934543363587148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08149822380878265</v>
+        <v>0.06464285555677451</v>
       </c>
       <c r="C83">
-        <v>0.03171498986479729</v>
+        <v>-0.03809766320605896</v>
       </c>
       <c r="D83">
-        <v>0.09833990239580419</v>
+        <v>-0.043351588916545</v>
       </c>
       <c r="E83">
-        <v>0.03120329726022458</v>
+        <v>0.06042391779485702</v>
       </c>
       <c r="F83">
-        <v>0.0638765300692687</v>
+        <v>-0.02280480625583004</v>
       </c>
       <c r="G83">
-        <v>0.03544003649391689</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04505917073533437</v>
+      </c>
+      <c r="H83">
+        <v>-0.03792297393046593</v>
+      </c>
+      <c r="I83">
+        <v>0.0100915539011865</v>
+      </c>
+      <c r="J83">
+        <v>0.09204248784389135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2402120210209469</v>
+        <v>0.2529721504292923</v>
       </c>
       <c r="C85">
-        <v>0.05310396880613286</v>
+        <v>-0.06500113259402325</v>
       </c>
       <c r="D85">
-        <v>-0.06261333863928792</v>
+        <v>0.08240999072704065</v>
       </c>
       <c r="E85">
-        <v>-0.1196765578606483</v>
+        <v>-0.1249836895827131</v>
       </c>
       <c r="F85">
-        <v>-0.02575629289339536</v>
+        <v>0.07641159675848458</v>
       </c>
       <c r="G85">
-        <v>0.04103917176051654</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.01313500729062921</v>
+      </c>
+      <c r="H85">
+        <v>-0.02839597178585701</v>
+      </c>
+      <c r="I85">
+        <v>-0.001493286353735155</v>
+      </c>
+      <c r="J85">
+        <v>0.1819851448095508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04780848138227425</v>
+        <v>0.03074740740809456</v>
       </c>
       <c r="C86">
-        <v>0.03523658002307711</v>
+        <v>-0.04422664456719036</v>
       </c>
       <c r="D86">
-        <v>0.001062227728037881</v>
+        <v>0.004047320518640236</v>
       </c>
       <c r="E86">
-        <v>0.05114740667759997</v>
+        <v>0.03431657734536226</v>
       </c>
       <c r="F86">
-        <v>-0.01220728533457978</v>
+        <v>-0.05992824927113282</v>
       </c>
       <c r="G86">
-        <v>0.02321849692978511</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.007498641466829334</v>
+      </c>
+      <c r="H86">
+        <v>-0.03924875902236831</v>
+      </c>
+      <c r="I86">
+        <v>0.06438463093216354</v>
+      </c>
+      <c r="J86">
+        <v>-0.01780163313551512</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03023082419659712</v>
+        <v>0.03803423614781604</v>
       </c>
       <c r="C87">
-        <v>-0.05763242307586454</v>
+        <v>0.02776261539687711</v>
       </c>
       <c r="D87">
-        <v>-0.01093389663908556</v>
+        <v>0.005512461355205968</v>
       </c>
       <c r="E87">
-        <v>0.06015119871104295</v>
+        <v>0.07194297862790619</v>
       </c>
       <c r="F87">
-        <v>0.04494091063376525</v>
+        <v>-0.05994314089646116</v>
       </c>
       <c r="G87">
-        <v>-0.1279287036615924</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.0247425019474771</v>
+      </c>
+      <c r="H87">
+        <v>0.01274508433233499</v>
+      </c>
+      <c r="I87">
+        <v>0.0001857880435271887</v>
+      </c>
+      <c r="J87">
+        <v>-0.08379591664424571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03934148437333278</v>
+        <v>0.02560550042303607</v>
       </c>
       <c r="C88">
-        <v>0.02339693866093554</v>
+        <v>-0.01794542004763959</v>
       </c>
       <c r="D88">
-        <v>-0.003979151979781655</v>
+        <v>0.007106584990602135</v>
       </c>
       <c r="E88">
-        <v>-0.0001930202781168121</v>
+        <v>-0.01567028330573401</v>
       </c>
       <c r="F88">
-        <v>-0.008445878496669995</v>
+        <v>-0.02259394309062471</v>
       </c>
       <c r="G88">
-        <v>0.06018515970501597</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02443849646527762</v>
+      </c>
+      <c r="H88">
+        <v>-0.04625000898974107</v>
+      </c>
+      <c r="I88">
+        <v>-0.02133694958531022</v>
+      </c>
+      <c r="J88">
+        <v>-0.02404691022689736</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01113548328617568</v>
+        <v>0.05535129849148152</v>
       </c>
       <c r="C89">
-        <v>-0.425020619863678</v>
+        <v>0.3918180415136852</v>
       </c>
       <c r="D89">
-        <v>0.09040699295490186</v>
+        <v>-0.02250054554769603</v>
       </c>
       <c r="E89">
-        <v>-0.0481439316827131</v>
+        <v>0.05444925194442933</v>
       </c>
       <c r="F89">
-        <v>0.02273921256214133</v>
+        <v>0.03311365720158542</v>
       </c>
       <c r="G89">
-        <v>0.02564887145836748</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.06913423117526005</v>
+      </c>
+      <c r="H89">
+        <v>0.006402470170258299</v>
+      </c>
+      <c r="I89">
+        <v>0.2834103652989914</v>
+      </c>
+      <c r="J89">
+        <v>0.09268618831648569</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01467952390595468</v>
+        <v>0.03316378067731904</v>
       </c>
       <c r="C90">
-        <v>-0.3065586551700188</v>
+        <v>0.3296778910220541</v>
       </c>
       <c r="D90">
-        <v>0.02106202163286012</v>
+        <v>-0.006752813400003484</v>
       </c>
       <c r="E90">
-        <v>0.02429952783971646</v>
+        <v>0.03488790468783665</v>
       </c>
       <c r="F90">
-        <v>0.006609592510030754</v>
+        <v>-0.006588905368733053</v>
       </c>
       <c r="G90">
-        <v>-0.07455860570421642</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01725857990908511</v>
+      </c>
+      <c r="H90">
+        <v>0.0479890795771918</v>
+      </c>
+      <c r="I90">
+        <v>0.2015287093321871</v>
+      </c>
+      <c r="J90">
+        <v>0.04503075826396453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3073264995895612</v>
+        <v>0.3161407160743524</v>
       </c>
       <c r="C91">
-        <v>0.0258193441787492</v>
+        <v>-0.05369974225775814</v>
       </c>
       <c r="D91">
-        <v>-0.0886313827560521</v>
+        <v>0.1008913364671217</v>
       </c>
       <c r="E91">
-        <v>-0.2556951230650955</v>
+        <v>-0.21579320932835</v>
       </c>
       <c r="F91">
-        <v>-0.112477098469575</v>
+        <v>0.1767960475981641</v>
       </c>
       <c r="G91">
-        <v>0.1206515631132705</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02192711511005608</v>
+      </c>
+      <c r="H91">
+        <v>0.002443253008618817</v>
+      </c>
+      <c r="I91">
+        <v>0.002198669463612192</v>
+      </c>
+      <c r="J91">
+        <v>0.3233693625720476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.02386990973810301</v>
+        <v>0.07583851981444652</v>
       </c>
       <c r="C92">
-        <v>-0.4504198970370043</v>
+        <v>0.4680499145189226</v>
       </c>
       <c r="D92">
-        <v>0.1878988147953766</v>
+        <v>-0.04272340367996028</v>
       </c>
       <c r="E92">
-        <v>-0.1278883877221142</v>
+        <v>-0.06218018057494983</v>
       </c>
       <c r="F92">
-        <v>-0.09092924082860977</v>
+        <v>0.1387200808013406</v>
       </c>
       <c r="G92">
-        <v>0.5327703264232456</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04259183319863063</v>
+      </c>
+      <c r="H92">
+        <v>-0.5754442493080768</v>
+      </c>
+      <c r="I92">
+        <v>-0.6166231128229182</v>
+      </c>
+      <c r="J92">
+        <v>-0.03203518043147793</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.02298739844311441</v>
+        <v>0.03479604515157599</v>
       </c>
       <c r="C93">
-        <v>-0.3661802631164323</v>
+        <v>0.4060813440433729</v>
       </c>
       <c r="D93">
-        <v>0.06442538335065159</v>
+        <v>-0.0261580997271291</v>
       </c>
       <c r="E93">
-        <v>-0.058464658199385</v>
+        <v>0.01816430954277169</v>
       </c>
       <c r="F93">
-        <v>-0.01736328445369445</v>
+        <v>0.05938784778494249</v>
       </c>
       <c r="G93">
-        <v>0.006007347436075061</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03969890177816301</v>
+      </c>
+      <c r="H93">
+        <v>0.04884376234159048</v>
+      </c>
+      <c r="I93">
+        <v>0.1988435663762919</v>
+      </c>
+      <c r="J93">
+        <v>0.06955149435017077</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3063388794148406</v>
+        <v>0.3238224159941454</v>
       </c>
       <c r="C94">
-        <v>-0.01970803415143447</v>
+        <v>-0.02143524229864439</v>
       </c>
       <c r="D94">
-        <v>-0.1035242765066058</v>
+        <v>0.166465297149367</v>
       </c>
       <c r="E94">
-        <v>-0.4341432706550523</v>
+        <v>-0.2729003110888981</v>
       </c>
       <c r="F94">
-        <v>-0.4426049066782573</v>
+        <v>0.286944525120741</v>
       </c>
       <c r="G94">
-        <v>-0.1294034827541468</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1998914563533814</v>
+      </c>
+      <c r="H94">
+        <v>-0.05496404281888268</v>
+      </c>
+      <c r="I94">
+        <v>0.2728973408643841</v>
+      </c>
+      <c r="J94">
+        <v>-0.5237047960137696</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1966169396589438</v>
+        <v>0.1433342010888589</v>
       </c>
       <c r="C95">
-        <v>-0.03165714801529922</v>
+        <v>-0.06181260496707945</v>
       </c>
       <c r="D95">
-        <v>-0.02900630457208369</v>
+        <v>0.03962957525985141</v>
       </c>
       <c r="E95">
-        <v>-0.3785672324911848</v>
+        <v>0.007215366449822793</v>
       </c>
       <c r="F95">
-        <v>0.8408243954181308</v>
+        <v>0.04133473637647563</v>
       </c>
       <c r="G95">
-        <v>0.0590097851622394</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9285652693267252</v>
+      </c>
+      <c r="H95">
+        <v>0.05763961987706117</v>
+      </c>
+      <c r="I95">
+        <v>0.003345869074699579</v>
+      </c>
+      <c r="J95">
+        <v>-0.2503800294835969</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.216379061079705</v>
+        <v>0.2075404075222169</v>
       </c>
       <c r="C98">
-        <v>-0.1335641938099696</v>
+        <v>0.0771287613590015</v>
       </c>
       <c r="D98">
-        <v>0.02887764242732217</v>
+        <v>0.0004419835610168782</v>
       </c>
       <c r="E98">
-        <v>0.09417674619208734</v>
+        <v>0.1749923569783482</v>
       </c>
       <c r="F98">
-        <v>0.02708402071121583</v>
+        <v>-0.01091542010576702</v>
       </c>
       <c r="G98">
-        <v>-0.2571236247017791</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.05840182134166425</v>
+      </c>
+      <c r="H98">
+        <v>0.2952521881593888</v>
+      </c>
+      <c r="I98">
+        <v>-0.2123765984449643</v>
+      </c>
+      <c r="J98">
+        <v>-0.0541493103415611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.0192658668382528</v>
+        <v>0.01245167750374324</v>
       </c>
       <c r="C101">
-        <v>0.01743751856527638</v>
+        <v>-0.02837699262695965</v>
       </c>
       <c r="D101">
-        <v>-0.01420318037651658</v>
+        <v>0.02271019148685205</v>
       </c>
       <c r="E101">
-        <v>0.04187126497978427</v>
+        <v>0.03955027973523824</v>
       </c>
       <c r="F101">
-        <v>0.01228608826064745</v>
+        <v>-0.06237738016674442</v>
       </c>
       <c r="G101">
-        <v>0.05051054448663902</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.00857159487854338</v>
+      </c>
+      <c r="H101">
+        <v>-0.1161559557304288</v>
+      </c>
+      <c r="I101">
+        <v>0.0161220281338217</v>
+      </c>
+      <c r="J101">
+        <v>-0.09238867293534402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1195992718050732</v>
+        <v>0.1208755939872983</v>
       </c>
       <c r="C102">
-        <v>0.005554413185708067</v>
+        <v>-0.03130308609753952</v>
       </c>
       <c r="D102">
-        <v>-0.05301799635875924</v>
+        <v>0.05129988733180845</v>
       </c>
       <c r="E102">
-        <v>-0.07379561694003642</v>
+        <v>-0.0784995676415905</v>
       </c>
       <c r="F102">
-        <v>0.01317143296754013</v>
+        <v>0.03926398617858982</v>
       </c>
       <c r="G102">
-        <v>0.01152741186042545</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03287859600875166</v>
+      </c>
+      <c r="H102">
+        <v>0.0009593791661465197</v>
+      </c>
+      <c r="I102">
+        <v>0.02056969853350792</v>
+      </c>
+      <c r="J102">
+        <v>0.07072735564506474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01682880592449539</v>
+        <v>0.02488855818023077</v>
       </c>
       <c r="C103">
-        <v>-0.001205202667457993</v>
+        <v>-0.004686598025262959</v>
       </c>
       <c r="D103">
-        <v>-0.01715623447496949</v>
+        <v>0.01646085320926596</v>
       </c>
       <c r="E103">
-        <v>-0.02564573614061249</v>
+        <v>-0.02893595957898743</v>
       </c>
       <c r="F103">
-        <v>-0.01445005317600171</v>
+        <v>-0.0007616492626623762</v>
       </c>
       <c r="G103">
-        <v>-0.009243100335292246</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01546970914728238</v>
+      </c>
+      <c r="H103">
+        <v>0.0001532419827464177</v>
+      </c>
+      <c r="I103">
+        <v>0.02282613548496806</v>
+      </c>
+      <c r="J103">
+        <v>0.008385431063564489</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
